--- a/Tools/excel2json/excel/BuffDefine.xlsx
+++ b/Tools/excel2json/excel/BuffDefine.xlsx
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="49">
   <si>
     <t>BID</t>
   </si>
@@ -187,13 +187,40 @@
     <t>Texture/Buff/Icon/Methysis</t>
   </si>
   <si>
+    <t>眩晕</t>
+  </si>
+  <si>
+    <t>无法操作</t>
+  </si>
+  <si>
+    <t>Texture/Buff/Icon/Dizzy</t>
+  </si>
+  <si>
+    <t>风行术</t>
+  </si>
+  <si>
+    <t>提高移动速度和闪避能力</t>
+  </si>
+  <si>
+    <t>Texture/Buff/Icon/Fengxingshu</t>
+  </si>
+  <si>
+    <t>正增益</t>
+  </si>
+  <si>
+    <t>无敌</t>
+  </si>
+  <si>
+    <t>一段时间内免疫全部伤害</t>
+  </si>
+  <si>
+    <t>Texture/Buff/Icon/Invincible</t>
+  </si>
+  <si>
     <t>Buff类别</t>
   </si>
   <si>
     <t>多层方案</t>
-  </si>
-  <si>
-    <t>正增益</t>
   </si>
   <si>
     <t>合并</t>
@@ -844,13 +871,16 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1175,30 +1205,30 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1" outlineLevelRow="7"/>
   <cols>
-    <col min="1" max="1" width="9" style="4"/>
-    <col min="2" max="2" width="20.75" style="4" customWidth="1"/>
-    <col min="3" max="3" width="18.75" style="4" customWidth="1"/>
-    <col min="4" max="4" width="27.1083333333333" style="4" customWidth="1"/>
-    <col min="5" max="5" width="27" style="4" customWidth="1"/>
-    <col min="6" max="6" width="28.3583333333333" style="4" customWidth="1"/>
-    <col min="7" max="7" width="9" style="4"/>
-    <col min="8" max="8" width="17.5916666666667" style="4" customWidth="1"/>
-    <col min="9" max="9" width="16.15" style="4" customWidth="1"/>
-    <col min="10" max="18" width="9" style="4"/>
-    <col min="19" max="19" width="11.6333333333333" style="4" customWidth="1"/>
-    <col min="20" max="27" width="9" style="4"/>
-    <col min="28" max="28" width="27.6833333333333" style="4" customWidth="1"/>
-    <col min="29" max="29" width="15.3833333333333" style="4" customWidth="1"/>
-    <col min="30" max="30" width="12.0166666666667" style="4" customWidth="1"/>
-    <col min="31" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="9" style="5"/>
+    <col min="2" max="2" width="20.75" style="5" customWidth="1"/>
+    <col min="3" max="3" width="18.75" style="5" customWidth="1"/>
+    <col min="4" max="4" width="27.1083333333333" style="5" customWidth="1"/>
+    <col min="5" max="5" width="27" style="5" customWidth="1"/>
+    <col min="6" max="6" width="28.3583333333333" style="5" customWidth="1"/>
+    <col min="7" max="7" width="9" style="5"/>
+    <col min="8" max="8" width="17.5916666666667" style="5" customWidth="1"/>
+    <col min="9" max="9" width="16.15" style="5" customWidth="1"/>
+    <col min="10" max="18" width="9" style="5"/>
+    <col min="19" max="19" width="11.6333333333333" style="5" customWidth="1"/>
+    <col min="20" max="27" width="9" style="5"/>
+    <col min="28" max="28" width="27.6833333333333" style="5" customWidth="1"/>
+    <col min="29" max="29" width="15.3833333333333" style="5" customWidth="1"/>
+    <col min="30" max="30" width="12.0166666666667" style="5" customWidth="1"/>
+    <col min="31" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="1" customHeight="1" spans="1:11">
@@ -1307,81 +1337,186 @@
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:11">
-      <c r="A4" s="4">
-        <v>1</v>
-      </c>
-      <c r="B4" s="4" t="s">
+      <c r="A4" s="5">
+        <v>1</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="5">
         <v>5</v>
       </c>
-      <c r="F4" s="4">
-        <v>1</v>
-      </c>
-      <c r="G4" s="4" t="s">
+      <c r="F4" s="5">
+        <v>1</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="I4" s="4">
-        <v>1</v>
-      </c>
-      <c r="J4" s="4">
-        <v>1</v>
-      </c>
-      <c r="K4" s="4">
+      <c r="I4" s="5">
+        <v>1</v>
+      </c>
+      <c r="J4" s="5">
+        <v>1</v>
+      </c>
+      <c r="K4" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:11">
-      <c r="A5" s="4">
-        <v>1</v>
-      </c>
-      <c r="B5" s="4" t="s">
+      <c r="A5" s="5">
+        <v>2</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="5">
         <v>5</v>
       </c>
-      <c r="F5" s="4">
-        <v>1</v>
-      </c>
-      <c r="G5" s="4" t="s">
+      <c r="F5" s="5">
+        <v>1</v>
+      </c>
+      <c r="G5" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="I5" s="4">
-        <v>1</v>
-      </c>
-      <c r="J5" s="4">
-        <v>1</v>
-      </c>
-      <c r="K5" s="4">
+      <c r="I5" s="5">
+        <v>1</v>
+      </c>
+      <c r="J5" s="5">
+        <v>1</v>
+      </c>
+      <c r="K5" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:11">
+      <c r="A6" s="5">
+        <v>3</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="5">
+        <v>5</v>
+      </c>
+      <c r="F6" s="5">
+        <v>1</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="5">
+        <v>1</v>
+      </c>
+      <c r="J6" s="5">
+        <v>1</v>
+      </c>
+      <c r="K6" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" s="4" customFormat="1" customHeight="1" spans="1:11">
+      <c r="A7" s="4">
+        <v>4</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="4">
+        <v>10</v>
+      </c>
+      <c r="F7" s="4">
+        <v>1</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" s="4">
+        <v>0</v>
+      </c>
+      <c r="J7" s="4">
+        <v>1</v>
+      </c>
+      <c r="K7" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:11">
+      <c r="A8" s="5">
+        <v>5</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="5">
+        <v>10</v>
+      </c>
+      <c r="F8" s="5">
+        <v>1</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" s="5">
+        <v>0</v>
+      </c>
+      <c r="J8" s="5">
+        <v>1</v>
+      </c>
+      <c r="K8" s="5">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G5 G1:G4 G6:G1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G5 G6 G1:G4 G7:G1048576">
       <formula1>'#数据项'!$A:$A</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5 H1:H4 H6:H1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5 H6 H1:H4 H7:H1048576">
       <formula1>'#数据项'!$B:$B</formula1>
     </dataValidation>
   </dataValidations>
@@ -1405,18 +1540,18 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1424,12 +1559,12 @@
         <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="B4" t="s">
         <v>30</v>

--- a/Tools/excel2json/excel/BuffDefine.xlsx
+++ b/Tools/excel2json/excel/BuffDefine.xlsx
@@ -1208,7 +1208,7 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1" outlineLevelRow="7"/>
@@ -1455,7 +1455,7 @@
         <v>39</v>
       </c>
       <c r="E7" s="4">
-        <v>10</v>
+        <v>120</v>
       </c>
       <c r="F7" s="4">
         <v>1</v>
@@ -1490,7 +1490,7 @@
         <v>43</v>
       </c>
       <c r="E8" s="5">
-        <v>10</v>
+        <v>120</v>
       </c>
       <c r="F8" s="5">
         <v>1</v>

--- a/Tools/excel2json/excel/BuffDefine.xlsx
+++ b/Tools/excel2json/excel/BuffDefine.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="18360"/>
+    <workbookView windowWidth="24045" windowHeight="12960"/>
   </bookViews>
   <sheets>
     <sheet name="BuffDefine" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
     <author>大凉龙雀</author>
   </authors>
   <commentList>
-    <comment ref="F3" authorId="0">
+    <comment ref="G3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -55,7 +55,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J3" authorId="0">
+    <comment ref="K3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="51">
   <si>
     <t>BID</t>
   </si>
@@ -97,6 +97,9 @@
     <t>IconPath</t>
   </si>
   <si>
+    <t>OwerEffects</t>
+  </si>
+  <si>
     <t>MaxDuration</t>
   </si>
   <si>
@@ -142,6 +145,9 @@
     <t>图标路径</t>
   </si>
   <si>
+    <t>buff拥有者的粒子特效</t>
+  </si>
+  <si>
     <t>持续时间</t>
   </si>
   <si>
@@ -169,7 +175,7 @@
     <t>持续燃烧伤害</t>
   </si>
   <si>
-    <t>Texture/Buff/Icon/Burn</t>
+    <t>UI/Texture/Buff/Icon/Burn</t>
   </si>
   <si>
     <t>负增益</t>
@@ -184,7 +190,7 @@
     <t>持续中毒伤害</t>
   </si>
   <si>
-    <t>Texture/Buff/Icon/Methysis</t>
+    <t>UI/Texture/Buff/Icon/Methysis</t>
   </si>
   <si>
     <t>眩晕</t>
@@ -193,7 +199,7 @@
     <t>无法操作</t>
   </si>
   <si>
-    <t>Texture/Buff/Icon/Dizzy</t>
+    <t>UI/Texture/Buff/Icon/Dizzy</t>
   </si>
   <si>
     <t>风行术</t>
@@ -202,7 +208,7 @@
     <t>提高移动速度和闪避能力</t>
   </si>
   <si>
-    <t>Texture/Buff/Icon/Fengxingshu</t>
+    <t>UI/Texture/Buff/Icon/Fengxingshu</t>
   </si>
   <si>
     <t>正增益</t>
@@ -214,7 +220,7 @@
     <t>一段时间内免疫全部伤害</t>
   </si>
   <si>
-    <t>Texture/Buff/Icon/Invincible</t>
+    <t>UI/Texture/Buff/Icon/Invincible</t>
   </si>
   <si>
     <t>Buff类别</t>
@@ -1205,10 +1211,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1" outlineLevelRow="7"/>
@@ -1216,22 +1222,22 @@
     <col min="1" max="1" width="9" style="5"/>
     <col min="2" max="2" width="20.75" style="5" customWidth="1"/>
     <col min="3" max="3" width="18.75" style="5" customWidth="1"/>
-    <col min="4" max="4" width="27.1083333333333" style="5" customWidth="1"/>
-    <col min="5" max="5" width="27" style="5" customWidth="1"/>
-    <col min="6" max="6" width="28.3583333333333" style="5" customWidth="1"/>
-    <col min="7" max="7" width="9" style="5"/>
-    <col min="8" max="8" width="17.5916666666667" style="5" customWidth="1"/>
-    <col min="9" max="9" width="16.15" style="5" customWidth="1"/>
-    <col min="10" max="18" width="9" style="5"/>
-    <col min="19" max="19" width="11.6333333333333" style="5" customWidth="1"/>
-    <col min="20" max="27" width="9" style="5"/>
-    <col min="28" max="28" width="27.6833333333333" style="5" customWidth="1"/>
-    <col min="29" max="29" width="15.3833333333333" style="5" customWidth="1"/>
-    <col min="30" max="30" width="12.0166666666667" style="5" customWidth="1"/>
-    <col min="31" max="16384" width="9" style="5"/>
+    <col min="4" max="5" width="27.1083333333333" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27" style="5" customWidth="1"/>
+    <col min="7" max="7" width="28.3583333333333" style="5" customWidth="1"/>
+    <col min="8" max="8" width="9" style="5"/>
+    <col min="9" max="9" width="17.5916666666667" style="5" customWidth="1"/>
+    <col min="10" max="10" width="16.15" style="5" customWidth="1"/>
+    <col min="11" max="19" width="9" style="5"/>
+    <col min="20" max="20" width="11.6333333333333" style="5" customWidth="1"/>
+    <col min="21" max="28" width="9" style="5"/>
+    <col min="29" max="29" width="27.6833333333333" style="5" customWidth="1"/>
+    <col min="30" max="30" width="15.3833333333333" style="5" customWidth="1"/>
+    <col min="31" max="31" width="12.0166666666667" style="5" customWidth="1"/>
+    <col min="32" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="1" customHeight="1" spans="1:11">
+    <row r="1" s="2" customFormat="1" customHeight="1" spans="1:12">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1265,104 +1271,110 @@
       <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" s="2" customFormat="1" customHeight="1" spans="1:11">
+    <row r="2" s="2" customFormat="1" customHeight="1" spans="1:12">
       <c r="A2" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>13</v>
-      </c>
     </row>
-    <row r="3" s="3" customFormat="1" customHeight="1" spans="1:11">
+    <row r="3" s="3" customFormat="1" customHeight="1" spans="1:12">
       <c r="A3" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="4" customHeight="1" spans="1:11">
+    <row r="4" customHeight="1" spans="1:12">
       <c r="A4" s="5">
         <v>1</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" s="5">
+        <v>30</v>
+      </c>
+      <c r="F4" s="5">
         <v>5</v>
       </c>
-      <c r="F4" s="5">
-        <v>1</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>29</v>
+      <c r="G4" s="5">
+        <v>1</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="I4" s="5">
-        <v>1</v>
+        <v>31</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="J4" s="5">
         <v>1</v>
@@ -1370,69 +1382,69 @@
       <c r="K4" s="5">
         <v>1</v>
       </c>
+      <c r="L4" s="5">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" customHeight="1" spans="1:11">
+    <row r="5" customHeight="1" spans="1:12">
       <c r="A5" s="5">
         <v>2</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="5">
+        <v>5</v>
+      </c>
+      <c r="G5" s="5">
+        <v>1</v>
+      </c>
+      <c r="H5" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="I5" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" s="5">
-        <v>5</v>
-      </c>
-      <c r="F5" s="5">
-        <v>1</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="I5" s="5">
-        <v>1</v>
-      </c>
       <c r="J5" s="5">
         <v>1</v>
       </c>
       <c r="K5" s="5">
         <v>1</v>
       </c>
+      <c r="L5" s="5">
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" customHeight="1" spans="1:11">
+    <row r="6" customHeight="1" spans="1:12">
       <c r="A6" s="5">
         <v>3</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" s="5">
+        <v>38</v>
+      </c>
+      <c r="F6" s="5">
         <v>5</v>
       </c>
-      <c r="F6" s="5">
-        <v>1</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>29</v>
+      <c r="G6" s="5">
+        <v>1</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="I6" s="5">
-        <v>1</v>
+        <v>31</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="J6" s="5">
         <v>1</v>
@@ -1440,83 +1452,86 @@
       <c r="K6" s="5">
         <v>1</v>
       </c>
+      <c r="L6" s="5">
+        <v>1</v>
+      </c>
     </row>
-    <row r="7" s="4" customFormat="1" customHeight="1" spans="1:11">
+    <row r="7" s="4" customFormat="1" customHeight="1" spans="1:12">
       <c r="A7" s="4">
         <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" s="4">
+        <v>41</v>
+      </c>
+      <c r="F7" s="4">
         <v>120</v>
       </c>
-      <c r="F7" s="4">
-        <v>1</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>40</v>
+      <c r="G7" s="4">
+        <v>1</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="I7" s="4">
+        <v>42</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J7" s="4">
         <v>0</v>
       </c>
-      <c r="J7" s="4">
-        <v>1</v>
-      </c>
       <c r="K7" s="4">
         <v>1</v>
       </c>
+      <c r="L7" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="8" customHeight="1" spans="1:11">
+    <row r="8" customHeight="1" spans="1:12">
       <c r="A8" s="5">
         <v>5</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C8" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="5">
+        <v>120</v>
+      </c>
+      <c r="G8" s="5">
+        <v>1</v>
+      </c>
+      <c r="H8" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E8" s="5">
-        <v>120</v>
-      </c>
-      <c r="F8" s="5">
-        <v>1</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="I8" s="5">
+      <c r="I8" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J8" s="5">
         <v>0</v>
       </c>
-      <c r="J8" s="5">
-        <v>1</v>
-      </c>
       <c r="K8" s="5">
+        <v>1</v>
+      </c>
+      <c r="L8" s="5">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G5 G6 G1:G4 G7:G1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5 H6 H1:H4 H7:H1048576">
       <formula1>'#数据项'!$A:$A</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5 H6 H1:H4 H7:H1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5 I6 I1:I4 I7:I1048576">
       <formula1>'#数据项'!$B:$B</formula1>
     </dataValidation>
   </dataValidations>
@@ -1540,34 +1555,34 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/Tools/excel2json/excel/BuffDefine.xlsx
+++ b/Tools/excel2json/excel/BuffDefine.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24045" windowHeight="12960"/>
+    <workbookView windowHeight="18360"/>
   </bookViews>
   <sheets>
     <sheet name="BuffDefine" sheetId="1" r:id="rId1"/>
@@ -1214,7 +1214,7 @@
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1" outlineLevelRow="7"/>

--- a/Tools/excel2json/excel/BuffDefine.xlsx
+++ b/Tools/excel2json/excel/BuffDefine.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="18360"/>
+    <workbookView windowWidth="27945" windowHeight="12960"/>
   </bookViews>
   <sheets>
     <sheet name="BuffDefine" sheetId="1" r:id="rId1"/>
@@ -175,7 +175,7 @@
     <t>持续燃烧伤害</t>
   </si>
   <si>
-    <t>UI/Texture/Buff/Icon/Burn</t>
+    <t>Texture/buff_icon/Burn</t>
   </si>
   <si>
     <t>负增益</t>
@@ -190,7 +190,7 @@
     <t>持续中毒伤害</t>
   </si>
   <si>
-    <t>UI/Texture/Buff/Icon/Methysis</t>
+    <t>Texture/buff_icon/Methysis</t>
   </si>
   <si>
     <t>眩晕</t>
@@ -199,7 +199,7 @@
     <t>无法操作</t>
   </si>
   <si>
-    <t>UI/Texture/Buff/Icon/Dizzy</t>
+    <t>Texture/buff_icon/Dizzy</t>
   </si>
   <si>
     <t>风行术</t>
@@ -208,7 +208,7 @@
     <t>提高移动速度和闪避能力</t>
   </si>
   <si>
-    <t>UI/Texture/Buff/Icon/Fengxingshu</t>
+    <t>Texture/buff_icon/Fengxingshu</t>
   </si>
   <si>
     <t>正增益</t>
@@ -220,7 +220,7 @@
     <t>一段时间内免疫全部伤害</t>
   </si>
   <si>
-    <t>UI/Texture/Buff/Icon/Invincible</t>
+    <t>Texture/buff_icon/Invincible</t>
   </si>
   <si>
     <t>Buff类别</t>
@@ -1214,7 +1214,7 @@
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1" outlineLevelRow="7"/>
@@ -1528,10 +1528,10 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H5 H6 H1:H4 H7:H1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H$1:H$1048576">
       <formula1>'#数据项'!$A:$A</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5 I6 I1:I4 I7:I1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I$1:I$1048576">
       <formula1>'#数据项'!$B:$B</formula1>
     </dataValidation>
   </dataValidations>

--- a/Tools/excel2json/excel/BuffDefine.xlsx
+++ b/Tools/excel2json/excel/BuffDefine.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12960"/>
+    <workbookView windowHeight="18360"/>
   </bookViews>
   <sheets>
     <sheet name="BuffDefine" sheetId="1" r:id="rId1"/>
@@ -175,7 +175,7 @@
     <t>持续燃烧伤害</t>
   </si>
   <si>
-    <t>Texture/buff_icon/Burn</t>
+    <t>Texture/buff_icon/Burn.png</t>
   </si>
   <si>
     <t>负增益</t>
@@ -190,7 +190,7 @@
     <t>持续中毒伤害</t>
   </si>
   <si>
-    <t>Texture/buff_icon/Methysis</t>
+    <t>Texture/buff_icon/Methysis.png</t>
   </si>
   <si>
     <t>眩晕</t>
@@ -199,7 +199,7 @@
     <t>无法操作</t>
   </si>
   <si>
-    <t>Texture/buff_icon/Dizzy</t>
+    <t>Texture/buff_icon/Dizzy.png</t>
   </si>
   <si>
     <t>风行术</t>
@@ -208,7 +208,7 @@
     <t>提高移动速度和闪避能力</t>
   </si>
   <si>
-    <t>Texture/buff_icon/Fengxingshu</t>
+    <t>Texture/buff_icon/Fengxingshu.png</t>
   </si>
   <si>
     <t>正增益</t>
@@ -220,7 +220,7 @@
     <t>一段时间内免疫全部伤害</t>
   </si>
   <si>
-    <t>Texture/buff_icon/Invincible</t>
+    <t>Texture/buff_icon/Invincible.png</t>
   </si>
   <si>
     <t>Buff类别</t>
@@ -1214,7 +1214,7 @@
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1" outlineLevelRow="7"/>

--- a/Tools/excel2json/excel/BuffDefine.xlsx
+++ b/Tools/excel2json/excel/BuffDefine.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="18360"/>
+    <workbookView windowWidth="27945" windowHeight="12960"/>
   </bookViews>
   <sheets>
     <sheet name="BuffDefine" sheetId="1" r:id="rId1"/>
@@ -55,6 +55,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="I3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>大凉龙雀:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+combine,合并为一个buff，叠层（提高等级）
+separate,独立存在
+cover, 覆盖，后者覆盖前者</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="K3" authorId="0">
       <text>
         <r>
@@ -409,12 +433,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1214,7 +1238,7 @@
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1" outlineLevelRow="7"/>
